--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/1_Impots_Lies_Au_C_A/1_I_D_S/2_Imposition_Des_Remunerations/1_Dividendes/2_F_2777_SD/2777_SD.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/1_Impots_Lies_Au_C_A/1_I_D_S/2_Imposition_Des_Remunerations/1_Dividendes/2_F_2777_SD/2777_SD.xlsx
@@ -9,12 +9,800 @@
   <sheets>
     <sheet name="I_D_R_Formulaire_2777_SD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="260">
+  <si>
+    <t>Revenus de capitaix mobiliers / Prélèvements et retenues à la source</t>
+  </si>
+  <si>
+    <t>Déclaration relative au mois de : (cocher la case par Oui ou Non)</t>
+  </si>
+  <si>
+    <t>Mois</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Versement de l'acompte dû au 15 octobre (cocher la case par Oui ou Non)</t>
+  </si>
+  <si>
+    <t>(Cocher la case correspondante)</t>
+  </si>
+  <si>
+    <t>Cette déclaration doit être télé-déclarée: ('-') dans les quinze jours suivants l'expiration du mois au cours duquel les revenus ont été payés; ('-') le 15 octobre de chaque année lorsqu'il s'agit du versement de l'acompte dû au titre de la contribution sociale généralisée, du prélèvement de solidarité, de la contribution au remboursement de la dette sociale et des prélèvements forfaitaires et retenues à la source.</t>
+  </si>
+  <si>
+    <t>Les dispositions des articles 39 et 40 de la loi n°78-17 du 6 janvier 1978 relatives à l'informatique, aux fichiers et aux libertés, modifiée par la loi n°2004-801 du 6 août 2004 garantissent les droits des personnes physiques à l'égard des traitements des données à caractère personnel.</t>
+  </si>
+  <si>
+    <t>Identification du redevable</t>
+  </si>
+  <si>
+    <t>Adresse du principal établissement</t>
+  </si>
+  <si>
+    <t>Dénomination</t>
+  </si>
+  <si>
+    <t>Adresse du siège social (si elle est différente de l'adresse du principal établissement)</t>
+  </si>
+  <si>
+    <t>Indiquez votre numéro de téléphone (qui peut être celui d'un correspondant) :</t>
+  </si>
+  <si>
+    <t>N° SIREN du principal établissement :</t>
+  </si>
+  <si>
+    <t>Adresse courriel de contact :</t>
+  </si>
+  <si>
+    <t>Nom du destinataire et Adresse du correspondance :</t>
+  </si>
+  <si>
+    <t>Paiement</t>
+  </si>
+  <si>
+    <t>Total à payer</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>A - Déclaration mensuelle (cadres 11, 12 et 13 non servis)</t>
+  </si>
+  <si>
+    <t>('-') Si OP + PS + PR + PG positif ou nul : OP + PQ + PS + PR + PG + PU ; ('-') Si OP + PS + PR + PG négatif : PQ + PU</t>
+  </si>
+  <si>
+    <t>B - Déclaration d'acompte (cadre 11 servi)</t>
+  </si>
+  <si>
+    <t>('-') Si OP + PS + PR + PG positif ou nul : OP + PQ + PS + PR + PG + PU ; ('-') Si OP + PS + PR + PG négatif : PQ + PU + Lignes RY + ABA + ABB</t>
+  </si>
+  <si>
+    <t>C - Déclaration de régularisation (cadres 11, 12 et 13 servis) ; ('-') Déclaration n°2777 de janvier N (au titre de décembre N-1) ; ('-') Déclaration n°2777 de février N (au titre de janvier N)</t>
+  </si>
+  <si>
+    <t>('-') Report de la ligne SF {Si le montant est négatif, vous pouvez en demander la restitution ou reporter ce montant au cadre 12B ligne TC de la déclaration de février N au titre des revenus versés en janvier N (cf. notice)}</t>
+  </si>
+  <si>
+    <t>('-') Report de la ligne TG {Si le montant est négatif, demandez-en la restitution (cf. notice)}</t>
+  </si>
+  <si>
+    <t>Mode de paiement</t>
+  </si>
+  <si>
+    <t>Attention : les prélèvements et retenues dus à compter du 1er septembre 2018 doivent être télé-déclarés et télé-payés.</t>
+  </si>
+  <si>
+    <t>Demande de report ou de remboursement</t>
+  </si>
+  <si>
+    <t>Cocher la case par Oui ou Non</t>
+  </si>
+  <si>
+    <t>Cocher la case suivante par Oui ou Non pour rayer la mention "Nom"</t>
+  </si>
+  <si>
+    <t>Cocher la case suivante par Oui ou Non pour rayer la mention "dénomination"</t>
+  </si>
+  <si>
+    <t>Cocher la case suivante par Oui ou Non pour rayer la mention "personne"</t>
+  </si>
+  <si>
+    <t>Nom ou dénomination ou personne ayant qualité pour agir (rayer les mentions inutiles)</t>
+  </si>
+  <si>
+    <t>demande le report du crédit.</t>
+  </si>
+  <si>
+    <t>demande le remboursement de la somme de</t>
+  </si>
+  <si>
+    <t>€.</t>
+  </si>
+  <si>
+    <t>Date :</t>
+  </si>
+  <si>
+    <t>Compte :</t>
+  </si>
+  <si>
+    <t>BIC :</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>Titulaire du compte :</t>
+  </si>
+  <si>
+    <t>Signature :</t>
+  </si>
+  <si>
+    <t>Report / QT</t>
+  </si>
+  <si>
+    <t>Remboursement / QS</t>
+  </si>
+  <si>
+    <t>Cadre réservé à l'administration</t>
+  </si>
+  <si>
+    <t>N° dossier</t>
+  </si>
+  <si>
+    <t>Date de réception</t>
+  </si>
+  <si>
+    <t>Prise en recette</t>
+  </si>
+  <si>
+    <t>Prise en charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droits </t>
+  </si>
+  <si>
+    <t>Pénalités</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Prélèvements</t>
+  </si>
+  <si>
+    <t>1 / Art. 125 A du CGI / Prélèvement sur les intérêts, arrérages et produits de toute nature servis à des personnes fiscalement domiciliées en France</t>
+  </si>
+  <si>
+    <t>Intitulé</t>
+  </si>
+  <si>
+    <t>Base imposable</t>
+  </si>
+  <si>
+    <t>Taux</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Impôt</t>
+  </si>
+  <si>
+    <t>Intérêts, arrérages et produits de toute nature</t>
+  </si>
+  <si>
+    <t>Produits versés dans un État ou territoire non coopératif</t>
+  </si>
+  <si>
+    <t>Produits d’épargne solidaire de partage</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>2 / Art. 125-0 A du CGI / PRÉLÈVEMENT SUR LES INTÉRÊTS DES BONS ET CONTRATS DE CAPITALISATION ET ASSIMILÉS (ASSURANCE-VIE)</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : à compter du 01-01-90 : – de moins de 4 ans</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis :  à compter du 01-01-90 : – de 4 à moins de 8 ans</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : à compter du 01-01-90 : – de 8 ans et plus</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : entre le 01-01-83 et le 31-12-89 : – de moins de 2 ans</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : entre le 01-01-83 et le 31-12-89 : – de 2 à moins de 4 ans</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : entre le 01-01-83 et le 31-12-89 : – de 4 à moins de 6 ans</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Primes versées avant le 27-09-17. Bons émis : entre le 01-01-83 et le 31-12-89 : – de 6 ans et plus</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>Primes versées à compter du 27-09-17 : bons émis entre le 01-01-83 et le 31-12-89 pour une durée de 6 ans et plus ou bons émis à compter du 01-01-90 pour une durée de 8 ans :</t>
+  </si>
+  <si>
+    <t>Primes versées à compter du 27-09-17 : autres cas :</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DQ</t>
+  </si>
+  <si>
+    <t>Primes versées à compter du 10-10-19 pour les bons émis avant le 01-01-83 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Produits bénéficiant à des personnes domiciliées fiscalement ou établies dans un État ou territoire non coopératif :</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>3 / Art. 117 quarter du CGI / PRÉLÈVEMENT SUR LES REVENUS DISTRIBUÉS</t>
+  </si>
+  <si>
+    <t>Revenus distribués</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Taux [%]</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Autres produits soumis à prélèvements</t>
+  </si>
+  <si>
+    <t>4 / AUTRES PRODUITS SOUMIS À PRÉLÈVEMENTS</t>
+  </si>
+  <si>
+    <t>RETENUES À LA SOURCE</t>
+  </si>
+  <si>
+    <t>5 / Art. 115 quinquies, 1673 bis et 119 bis 2 du CGI / RETENUE À LA SOURCE SUR LES BÉNÉFICES RÉALISÉS EN FRANCE PAR LES SOCIÉTÉS ÉTRANGÈRES</t>
+  </si>
+  <si>
+    <t>NATURE DES PRODUITS OU DES SOMMES À DÉDUIRE</t>
+  </si>
+  <si>
+    <t>IMPÔT</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Bénéfices et plus-values retenus pour l’assiette de l’IS (A)</t>
+  </si>
+  <si>
+    <t>Bénéfices et plus-values de l’exercice, non compris dans la base de l’IS (B)</t>
+  </si>
+  <si>
+    <t>IS dû pour l’exercice (C)</t>
+  </si>
+  <si>
+    <t>Bénéfices ou plus-values antérieurs, compris dans la base de l’IS (D)</t>
+  </si>
+  <si>
+    <t>BASE IMPOSABLE DE LA RETENUE À LA SOURCE (A + B) – (C + D)</t>
+  </si>
+  <si>
+    <t>TAUX [%]</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Intérêts, prime de remboursement : bénéficiaires personnes morales</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Intérêts, prime de remboursement : bénéficiaires personnes physiques</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>6 / Art. 1678 bis et Art. 119 bis 1 du CGI / RETENUE À LA SOURCE SUR LES INTÉRÊTS DES BONS DE CAISSE</t>
+  </si>
+  <si>
+    <t>7 / Art. 119 bis 2 du CGI / RETENUE À LA SOURCE SUR LES REVENUS DISTRIBUÉS À DES NON-RESIDENTS</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Dividendes et autres revenus distribués (taux légaux en France) – Personnes morales</t>
+  </si>
+  <si>
+    <t>Dividendes et autres revenus distribués (taux légaux en France) – Personnes physiques</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>Dividendes et autres revenus distribués (taux légaux en France)</t>
+  </si>
+  <si>
+    <t>Dividendes et autres revenus distribués supportant une retenue à  la source inférieure au taux légal en application des conventions internationales</t>
+  </si>
+  <si>
+    <t>Sous-total retenue à la source : bénéficiaires personnes physiques</t>
+  </si>
+  <si>
+    <t>Sous-total retenue à la source : bénéficiaires personnes morales</t>
+  </si>
+  <si>
+    <t>S. total</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Montant des produits visés aux articles 108 à 117 bis du CGI ayant bénéficié de l’exonération de retenue à la source sur le fondement du 2 de l’article 119 bis du CGI.</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>TOTAL BRUT</t>
+  </si>
+  <si>
+    <t>8 / TOTAL BRUT AVANT RÉGULARISATIONS</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Total des sommes inscrites aux cadres 1 à 6 + ligne HI du cadre 7</t>
+  </si>
+  <si>
+    <t>RÉGULARISATIONS</t>
+  </si>
+  <si>
+    <t>9 / RÉGULARISATIONS</t>
+  </si>
+  <si>
+    <t>A – À partir de la déclaration n° 2777 créditrice</t>
+  </si>
+  <si>
+    <t>Correspond aux montants cumulés créditeurs des lignes OP, PS, PR et PG dégagés sur les précédentes déclarations n° 2777-SD et dont le remboursement n’a pas été demandé.</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>B – Au titre des formulaires 5000 et 5001 (tenus à disposition de l’administration)</t>
+  </si>
+  <si>
+    <t>Indice</t>
+  </si>
+  <si>
+    <t>Déclaration n° 2777 Du mois de versement</t>
+  </si>
+  <si>
+    <t>A- RÉGULARISATION HORS PFU (CF. NOTICE)</t>
+  </si>
+  <si>
+    <t>B- RÉGULARISATION PFU (CF. NOTICE)</t>
+  </si>
+  <si>
+    <t>C- TOTAL / RÉGULARISATIONS A + B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>C – Autres régularisations</t>
+  </si>
+  <si>
+    <t>Régularisation portant sur le prélèvement forfaitaire unique</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Régularisation hors prélèvement forfaitaire unique</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>Régularisation de prélèvements sur produits distribués au bénéfice d’une personne morale</t>
+  </si>
+  <si>
+    <t>TOTAL NET APRÈS RÉGULARISATIONS</t>
+  </si>
+  <si>
+    <t>TOTAL lignes IL – (JK + LM + MM + NP) + NQ</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Si le total des lignes OP + PS + PR + PG du cadre 10 ci-dessous des déclarations portant sur les périodes de février à novembre est négatif (vous êtes en situation de crédit) vous pouvez : ('–') soit en demander le remboursement en cochant la ligne QS et en saisissant les références bancaires en page 1 de la déclaration, ('–') soit en demander le report en cochant la ligne QT de la page 1 de cette déclaration. L’imputation se fera alors sur la prochaine déclaration n° 2777-SD (cadre 9 A en ligne JK).</t>
+  </si>
+  <si>
+    <t>CONTRIBUTIONS ET PRÉLÈVEMENTS SOCIAUX</t>
+  </si>
+  <si>
+    <t>10 / CONTRIBUTIONS ET PRÉLÈVEMENTS SOCIAUX (voir notice explicative)</t>
+  </si>
+  <si>
+    <t>CONTRIBUTION SOCIALE GÉNÉRALISÉE</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-1997 et le 31-12-1997</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-1998 et le 31-12-2004</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-2005 et le 31-12-2017</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-2018 et le 31-12-2018</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable depuis le 01-01-2019</t>
+  </si>
+  <si>
+    <t>QG</t>
+  </si>
+  <si>
+    <t>Total PP + PW + PN + QE + QG</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>PRÉLÈVEMENT SOCIAL</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable avant le 01-01-2011</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-2011 et le 30-09-2011</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-10-2011 et le 30-06-2012</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-07-2012 et le 31-12-2012</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-2013 et le 31-12-2018</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>Total PY + QA + QB + QC + QD</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>CONTRIBUTION ADDITIONNELLE AU PRÉLÈVEMENT SOCIAL</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-07-2004 et le 31-12-2018</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>CONTRIB. ADDITIONNELLE 1,1 % ET PRÉLÈVEMENT DE SOLIDARITÉ</t>
+  </si>
+  <si>
+    <t>Produits soumis au taux applicable entre le 01-01-2009 et le 31-12-2012</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>QF</t>
+  </si>
+  <si>
+    <t>QH</t>
+  </si>
+  <si>
+    <t>Total PF + QF + QH</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>CONTRIBUTION POUR LE REMBOURSEMENT DE LA DETTE SOCIALE</t>
+  </si>
+  <si>
+    <t>Intérêts sur livrets</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>AAB</t>
+  </si>
+  <si>
+    <t>Revenus obligataires</t>
+  </si>
+  <si>
+    <t>Revenus distribués entrant dans le champ de l’article 117 quater du CGI</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>Produits des plans et comptes épargne logement (PEL et CEL)</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>Gains sur plans d’épargne en actions (PEA et PEA-PME)</t>
+  </si>
+  <si>
+    <t>AAE</t>
+  </si>
+  <si>
+    <t>Produits de la participation ou de l’épargne salariale (PEE, PEI, Perco)</t>
+  </si>
+  <si>
+    <t>Produits des contrats de capitalisation ou assimilés multi-supports ou en UC</t>
+  </si>
+  <si>
+    <t>Produits des contrats de capitalisation ou assimilés en euros</t>
+  </si>
+  <si>
+    <t>Autres produits</t>
+  </si>
+  <si>
+    <t>AAF</t>
+  </si>
+  <si>
+    <t>AAG</t>
+  </si>
+  <si>
+    <t>AAH</t>
+  </si>
+  <si>
+    <t>AAI</t>
+  </si>
+  <si>
+    <t>Total AAA à AAI</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>VERSEMENT ET IMPUTATION DES ACOMPTES</t>
+  </si>
+  <si>
+    <t>11 / VERSEMENT DES ACOMPTES</t>
+  </si>
+  <si>
+    <t>ACOMPTE D’IMPÔT SUR LE REVENU</t>
+  </si>
+  <si>
+    <t>BASE DE L’ACOMPTE</t>
+  </si>
+  <si>
+    <t>IMPÔT (BASE X 90 %)</t>
+  </si>
+  <si>
+    <t>Prélèvements forfaitaires et retenues à la source dus au titre de décembre de l’année précédente</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>IMPÔT (BASE X 17,2 % X 90 %)</t>
+  </si>
+  <si>
+    <t>ACOMPTE SUR PRÉLÈVEMENTS SOCIAUX</t>
+  </si>
+  <si>
+    <t>BASE IMPOSABLE (100 %)</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>Dû au titre de décembre de l’année précédente</t>
+  </si>
+  <si>
+    <t>Dû au titre de janvier de l’année en cours</t>
+  </si>
+  <si>
+    <t>12 / IMPUTATION DES ACOMPTES VERSÉS (voir notice explicative)</t>
+  </si>
+  <si>
+    <t>A – DÉCLARATION DÉPOSÉE EN JANVIER N AU TITRE DES REVENUS DE DÉCEMBRE N-1</t>
+  </si>
+  <si>
+    <t>B – DÉCLARATION DÉPOSÉE EN FÉVRIER N au titre des revenus de janvier N</t>
+  </si>
+  <si>
+    <t>Ligne OP + PS + PR + PG – ligne RY – (7,5 / 17,2 X ABA)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Lignes PQ + PU – (9,7 / 17,2 X ABB)</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Lignes PQ + PU – (9,7 / 17,2 X ABA)</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Report QR déclaration de décembre N-1 déposée en janvier si négatif</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>13 / RÉSULTAT APRÈS IMPUTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne SE + Ligne SI </t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Ligne OP (cadre 9) + PS + PR + PG + TJ – ligne TC – (7,5 / 17,2 X ABB)</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>VEUILLEZ REPORTER LES INFORMATIONS RÉCAPITULANT LES ÉLÉMENTS D’IMPOSITION SELON LES MODALITÉS INDIQUÉES DANS LE CADRE « PAIEMENT » FIGURANT PAGE 1 DE VOTRE DÉCLARATION.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -24,18 +812,229 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -44,8 +1043,269 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,14 +1610,4807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AI261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+    </row>
+    <row r="39" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+    </row>
+    <row r="40" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+    </row>
+    <row r="41" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="44"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="44"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="25"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="25"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="16"/>
+      <c r="AF81" s="16"/>
+      <c r="AG81" s="16"/>
+      <c r="AH81" s="16"/>
+      <c r="AI81" s="16"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="19"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A92" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="10"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
+      <c r="L112" s="47"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="48">
+        <v>0.128</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J115" s="2"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+    </row>
+    <row r="118" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="48">
+        <v>0.35</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="48">
+        <v>0.45</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="48">
+        <v>0.128</v>
+      </c>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+    </row>
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
+      <c r="L132" s="47"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="48">
+        <v>0.128</v>
+      </c>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="47"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
+      <c r="K140" s="51"/>
+      <c r="L140" s="51"/>
+    </row>
+    <row r="141" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="47"/>
+      <c r="K141" s="47"/>
+      <c r="L141" s="47"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G142" s="53"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J142" s="54"/>
+      <c r="K142" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L142" s="54"/>
+    </row>
+    <row r="143" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F143" s="55"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="55"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="55"/>
+      <c r="L143" s="57"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="G144" s="21"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J144" s="22"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="10"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J145" s="22"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="10"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="59">
+        <v>0.128</v>
+      </c>
+      <c r="G146" s="21"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J146" s="22"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="10"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J147" s="22"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="10"/>
+    </row>
+    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
+      <c r="I149" s="47"/>
+      <c r="J149" s="47"/>
+      <c r="K149" s="47"/>
+      <c r="L149" s="47"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="48">
+        <v>0.128</v>
+      </c>
+      <c r="H152" s="48"/>
+      <c r="I152" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+    </row>
+    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="47"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="47"/>
+      <c r="L154" s="47"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J156" s="32"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+    </row>
+    <row r="157" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J157" s="32"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+    </row>
+    <row r="158" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J158" s="32"/>
+      <c r="K158" s="33"/>
+      <c r="L158" s="33"/>
+    </row>
+    <row r="159" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J159" s="32"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="33"/>
+    </row>
+    <row r="160" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="62">
+        <v>0.128</v>
+      </c>
+      <c r="H160" s="62"/>
+      <c r="I160" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J160" s="32"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="33"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="33"/>
+      <c r="L161" s="33"/>
+    </row>
+    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="33"/>
+      <c r="L162" s="33"/>
+    </row>
+    <row r="163" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="33"/>
+      <c r="L163" s="33"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="65"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="33"/>
+      <c r="L164" s="33"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="65"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="33"/>
+      <c r="L165" s="33"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="65"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="H166" s="61"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="33"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="65"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="33"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="65"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="33"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="65"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="63"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="33"/>
+      <c r="L169" s="33"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="38"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="63"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J171" s="32"/>
+      <c r="K171" s="33"/>
+      <c r="L171" s="33"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J172" s="32"/>
+      <c r="K172" s="33"/>
+      <c r="L172" s="33"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="33"/>
+      <c r="L173" s="33"/>
+    </row>
+    <row r="174" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J174" s="32"/>
+      <c r="K174" s="33"/>
+      <c r="L174" s="33"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="47"/>
+      <c r="F177" s="47"/>
+      <c r="G177" s="47"/>
+      <c r="H177" s="47"/>
+      <c r="I177" s="47"/>
+      <c r="J177" s="47"/>
+      <c r="K177" s="47"/>
+      <c r="L177" s="47"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="69"/>
+      <c r="G179" s="69"/>
+      <c r="H179" s="70"/>
+      <c r="I179" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J179" s="32"/>
+      <c r="K179" s="33"/>
+      <c r="L179" s="33"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B182" s="47"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="47"/>
+      <c r="J182" s="47"/>
+      <c r="K182" s="47"/>
+      <c r="L182" s="47"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J185" s="2"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+    </row>
+    <row r="187" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G187" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H187" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I187" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J187" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K187" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="L187" s="37"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="72"/>
+      <c r="B188" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="32"/>
+      <c r="F188" s="73"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="73"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="73"/>
+      <c r="K188" s="38"/>
+      <c r="L188" s="40"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B189" s="64"/>
+      <c r="C189" s="64"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="64"/>
+      <c r="F189" s="73"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="73"/>
+      <c r="I189" s="64"/>
+      <c r="J189" s="73"/>
+      <c r="K189" s="68"/>
+      <c r="L189" s="70"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B190" s="64"/>
+      <c r="C190" s="64"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="64"/>
+      <c r="F190" s="73"/>
+      <c r="G190" s="64"/>
+      <c r="H190" s="73"/>
+      <c r="I190" s="64"/>
+      <c r="J190" s="73"/>
+      <c r="K190" s="68"/>
+      <c r="L190" s="70"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="73"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="73"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="73"/>
+      <c r="K191" s="68"/>
+      <c r="L191" s="70"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="64"/>
+      <c r="F192" s="73"/>
+      <c r="G192" s="64"/>
+      <c r="H192" s="73"/>
+      <c r="I192" s="64"/>
+      <c r="J192" s="73"/>
+      <c r="K192" s="68"/>
+      <c r="L192" s="70"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B193" s="64"/>
+      <c r="C193" s="64"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="64"/>
+      <c r="F193" s="72"/>
+      <c r="G193" s="64"/>
+      <c r="H193" s="72"/>
+      <c r="I193" s="64"/>
+      <c r="J193" s="72"/>
+      <c r="K193" s="68"/>
+      <c r="L193" s="70"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="15"/>
+      <c r="B194" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G194" s="16"/>
+      <c r="H194" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I194" s="16"/>
+      <c r="J194" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K194" s="8"/>
+      <c r="L194" s="10"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J197" s="2"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J198" s="2"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J199" s="2"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J202" s="22"/>
+      <c r="K202" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L202" s="22"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J203" s="2"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+    </row>
+    <row r="204" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="75"/>
+      <c r="C205" s="75"/>
+      <c r="D205" s="75"/>
+      <c r="E205" s="75"/>
+      <c r="F205" s="75"/>
+      <c r="G205" s="75"/>
+      <c r="H205" s="75"/>
+      <c r="I205" s="75"/>
+      <c r="J205" s="75"/>
+      <c r="K205" s="75"/>
+      <c r="L205" s="76"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="77"/>
+      <c r="B206" s="78"/>
+      <c r="C206" s="78"/>
+      <c r="D206" s="78"/>
+      <c r="E206" s="78"/>
+      <c r="F206" s="78"/>
+      <c r="G206" s="78"/>
+      <c r="H206" s="78"/>
+      <c r="I206" s="78"/>
+      <c r="J206" s="78"/>
+      <c r="K206" s="78"/>
+      <c r="L206" s="79"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="77"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="78"/>
+      <c r="D207" s="78"/>
+      <c r="E207" s="78"/>
+      <c r="F207" s="78"/>
+      <c r="G207" s="78"/>
+      <c r="H207" s="78"/>
+      <c r="I207" s="78"/>
+      <c r="J207" s="78"/>
+      <c r="K207" s="78"/>
+      <c r="L207" s="79"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="80"/>
+      <c r="B208" s="81"/>
+      <c r="C208" s="81"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
+      <c r="F208" s="81"/>
+      <c r="G208" s="81"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="81"/>
+      <c r="L208" s="82"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="47"/>
+      <c r="J211" s="47"/>
+      <c r="K211" s="47"/>
+      <c r="L211" s="47"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B212" s="41"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="41"/>
+      <c r="E212" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F212" s="41"/>
+      <c r="G212" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H212" s="41"/>
+      <c r="I212" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L212" s="41"/>
+    </row>
+    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="62">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H213" s="62"/>
+      <c r="I213" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J213" s="32"/>
+      <c r="K213" s="33"/>
+      <c r="L213" s="33"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H214" s="62"/>
+      <c r="I214" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J214" s="32"/>
+      <c r="K214" s="33"/>
+      <c r="L214" s="33"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="62">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H215" s="62"/>
+      <c r="I215" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J215" s="32"/>
+      <c r="K215" s="33"/>
+      <c r="L215" s="33"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="62">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H216" s="62"/>
+      <c r="I216" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J216" s="32"/>
+      <c r="K216" s="33"/>
+      <c r="L216" s="33"/>
+    </row>
+    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="62">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H217" s="62"/>
+      <c r="I217" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J217" s="32"/>
+      <c r="K217" s="33"/>
+      <c r="L217" s="33"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J218" s="11"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" s="41"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F219" s="41"/>
+      <c r="G219" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H219" s="41"/>
+      <c r="I219" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J219" s="41"/>
+      <c r="K219" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L219" s="41"/>
+    </row>
+    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="62">
+        <v>0.02</v>
+      </c>
+      <c r="H220" s="62"/>
+      <c r="I220" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J220" s="32"/>
+      <c r="K220" s="33"/>
+      <c r="L220" s="33"/>
+    </row>
+    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H221" s="62"/>
+      <c r="I221" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="J221" s="32"/>
+      <c r="K221" s="33"/>
+      <c r="L221" s="33"/>
+    </row>
+    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="62">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H222" s="62"/>
+      <c r="I222" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J222" s="32"/>
+      <c r="K222" s="33"/>
+      <c r="L222" s="33"/>
+    </row>
+    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="62">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H223" s="62"/>
+      <c r="I223" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J223" s="32"/>
+      <c r="K223" s="33"/>
+      <c r="L223" s="33"/>
+    </row>
+    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="62">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H224" s="62"/>
+      <c r="I224" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J224" s="32"/>
+      <c r="K224" s="33"/>
+      <c r="L224" s="33"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J225" s="11"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B226" s="41"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="41"/>
+      <c r="E226" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F226" s="41"/>
+      <c r="G226" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H226" s="41"/>
+      <c r="I226" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J226" s="41"/>
+      <c r="K226" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L226" s="41"/>
+    </row>
+    <row r="227" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="62">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H227" s="62"/>
+      <c r="I227" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J227" s="32"/>
+      <c r="K227" s="33"/>
+      <c r="L227" s="33"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B228" s="41"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="41"/>
+      <c r="E228" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F228" s="41"/>
+      <c r="G228" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H228" s="41"/>
+      <c r="I228" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J228" s="41"/>
+      <c r="K228" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L228" s="41"/>
+    </row>
+    <row r="229" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="62">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H229" s="62"/>
+      <c r="I229" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J229" s="32"/>
+      <c r="K229" s="33"/>
+      <c r="L229" s="33"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="62">
+        <v>0.02</v>
+      </c>
+      <c r="H230" s="62"/>
+      <c r="I230" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J230" s="32"/>
+      <c r="K230" s="33"/>
+      <c r="L230" s="33"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H231" s="62"/>
+      <c r="I231" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J231" s="32"/>
+      <c r="K231" s="33"/>
+      <c r="L231" s="33"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J232" s="11"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="41"/>
+      <c r="E233" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H233" s="41"/>
+      <c r="I233" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J233" s="41"/>
+      <c r="K233" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="L233" s="41"/>
+    </row>
+    <row r="234" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="62"/>
+      <c r="H234" s="62"/>
+      <c r="I234" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J234" s="32"/>
+      <c r="K234" s="33"/>
+      <c r="L234" s="33"/>
+    </row>
+    <row r="235" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="62"/>
+      <c r="H235" s="62"/>
+      <c r="I235" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J235" s="32"/>
+      <c r="K235" s="33"/>
+      <c r="L235" s="33"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B236" s="32"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="62"/>
+      <c r="H236" s="62"/>
+      <c r="I236" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J236" s="32"/>
+      <c r="K236" s="33"/>
+      <c r="L236" s="33"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="62"/>
+      <c r="H237" s="62"/>
+      <c r="I237" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J237" s="32"/>
+      <c r="K237" s="33"/>
+      <c r="L237" s="33"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="62"/>
+      <c r="H238" s="62"/>
+      <c r="I238" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J238" s="32"/>
+      <c r="K238" s="33"/>
+      <c r="L238" s="33"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="62"/>
+      <c r="H239" s="62"/>
+      <c r="I239" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J239" s="32"/>
+      <c r="K239" s="33"/>
+      <c r="L239" s="33"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="62"/>
+      <c r="H240" s="62"/>
+      <c r="I240" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J240" s="32"/>
+      <c r="K240" s="33"/>
+      <c r="L240" s="33"/>
+    </row>
+    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="62"/>
+      <c r="H241" s="62"/>
+      <c r="I241" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J241" s="32"/>
+      <c r="K241" s="33"/>
+      <c r="L241" s="33"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B242" s="32"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="62"/>
+      <c r="H242" s="62"/>
+      <c r="I242" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J242" s="32"/>
+      <c r="K242" s="33"/>
+      <c r="L242" s="33"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J243" s="11"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B246" s="47"/>
+      <c r="C246" s="47"/>
+      <c r="D246" s="47"/>
+      <c r="E246" s="47"/>
+      <c r="F246" s="47"/>
+      <c r="G246" s="47"/>
+      <c r="H246" s="47"/>
+      <c r="I246" s="47"/>
+      <c r="J246" s="47"/>
+      <c r="K246" s="47"/>
+      <c r="L246" s="47"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B247" s="41"/>
+      <c r="C247" s="41"/>
+      <c r="D247" s="41"/>
+      <c r="E247" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F247" s="41"/>
+      <c r="G247" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H247" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="I247" s="41"/>
+      <c r="J247" s="41"/>
+      <c r="K247" s="41"/>
+      <c r="L247" s="41"/>
+    </row>
+    <row r="248" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B248" s="32"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="33"/>
+      <c r="G248" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="33"/>
+      <c r="K248" s="33"/>
+      <c r="L248" s="33"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="B249" s="41"/>
+      <c r="C249" s="41"/>
+      <c r="D249" s="41"/>
+      <c r="E249" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F249" s="41"/>
+      <c r="G249" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H249" s="41"/>
+      <c r="I249" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J249" s="41"/>
+      <c r="K249" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="L249" s="41"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J250" s="2"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J251" s="2"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252" s="47"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="47"/>
+      <c r="E252" s="47"/>
+      <c r="F252" s="47"/>
+      <c r="G252" s="47"/>
+      <c r="H252" s="47"/>
+      <c r="I252" s="47"/>
+      <c r="J252" s="47"/>
+      <c r="K252" s="47"/>
+      <c r="L252" s="47"/>
+    </row>
+    <row r="253" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253" s="85"/>
+      <c r="C253" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D253" s="87"/>
+      <c r="E253" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F253" s="87"/>
+      <c r="G253" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H253" s="87"/>
+      <c r="I253" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="J253" s="87"/>
+      <c r="K253" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="L253" s="87"/>
+    </row>
+    <row r="254" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" s="84"/>
+      <c r="C254" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="D254" s="84"/>
+      <c r="E254" s="68"/>
+      <c r="F254" s="70"/>
+      <c r="G254" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="H254" s="84"/>
+      <c r="I254" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="J254" s="84"/>
+      <c r="K254" s="68"/>
+      <c r="L254" s="70"/>
+    </row>
+    <row r="255" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B255" s="84"/>
+      <c r="C255" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D255" s="84"/>
+      <c r="E255" s="68"/>
+      <c r="F255" s="70"/>
+      <c r="G255" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="H255" s="84"/>
+      <c r="I255" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="J255" s="84"/>
+      <c r="K255" s="68"/>
+      <c r="L255" s="70"/>
+    </row>
+    <row r="256" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="47"/>
+      <c r="C256" s="47"/>
+      <c r="D256" s="47"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="47"/>
+      <c r="G256" s="47"/>
+      <c r="H256" s="47"/>
+      <c r="I256" s="47"/>
+      <c r="J256" s="47"/>
+      <c r="K256" s="47"/>
+      <c r="L256" s="47"/>
+    </row>
+    <row r="257" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B257" s="85"/>
+      <c r="C257" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D257" s="87"/>
+      <c r="E257" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F257" s="87"/>
+      <c r="G257" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H257" s="87"/>
+      <c r="I257" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="J257" s="87"/>
+      <c r="K257" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="L257" s="87"/>
+    </row>
+    <row r="258" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B258" s="84"/>
+      <c r="C258" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D258" s="84"/>
+      <c r="E258" s="68"/>
+      <c r="F258" s="70"/>
+      <c r="G258" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="H258" s="84"/>
+      <c r="I258" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="J258" s="84"/>
+      <c r="K258" s="68"/>
+      <c r="L258" s="70"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="30"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+    </row>
+    <row r="261" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="30"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
+      <c r="F261" s="30"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+      <c r="J261" s="30"/>
+      <c r="K261" s="30"/>
+      <c r="L261" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="609">
+    <mergeCell ref="A260:L261"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="A256:L256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="K254:L254"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="I254:J254"/>
+    <mergeCell ref="G254:H254"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="A252:L252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="I253:J253"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="A250:D250"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="I250:J250"/>
+    <mergeCell ref="K250:L250"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="I251:J251"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="H247:L247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="H248:L248"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="I249:J249"/>
+    <mergeCell ref="K249:L249"/>
+    <mergeCell ref="A243:H243"/>
+    <mergeCell ref="I243:J243"/>
+    <mergeCell ref="K243:L243"/>
+    <mergeCell ref="A245:L245"/>
+    <mergeCell ref="A246:L246"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="I241:J241"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="I242:J242"/>
+    <mergeCell ref="K242:L242"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="I239:J239"/>
+    <mergeCell ref="K239:L239"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="I240:J240"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="I237:J237"/>
+    <mergeCell ref="K237:L237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="I238:J238"/>
+    <mergeCell ref="K238:L238"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="I235:J235"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="I236:J236"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="I233:J233"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="I234:J234"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="I231:J231"/>
+    <mergeCell ref="K231:L231"/>
+    <mergeCell ref="A232:H232"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="K232:L232"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="I230:J230"/>
+    <mergeCell ref="K230:L230"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="I227:J227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:J228"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="I225:J225"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="I226:J226"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="I223:J223"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="I224:J224"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="I221:J221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="I222:J222"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="A218:H218"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="I215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="A205:L208"/>
+    <mergeCell ref="A210:L210"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="A202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="A199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="A195:L195"/>
+    <mergeCell ref="A196:H196"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="F187:F193"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="H187:H193"/>
+    <mergeCell ref="J187:J193"/>
+    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="A186:L186"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="K187:L188"/>
+    <mergeCell ref="A181:L181"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="A184:H184"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="E178:H178"/>
+    <mergeCell ref="E179:H179"/>
+    <mergeCell ref="A176:L176"/>
+    <mergeCell ref="A177:L177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="A163:D170"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="A154:L154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="A149:L149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="I144:J144"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="I147:J147"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F142:H143"/>
+    <mergeCell ref="I142:J143"/>
+    <mergeCell ref="K142:L143"/>
+    <mergeCell ref="A140:L140"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="A136:L136"/>
+    <mergeCell ref="A132:L132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A107:L107"/>
+    <mergeCell ref="A108:L108"/>
+    <mergeCell ref="A109:L109"/>
+    <mergeCell ref="A98:L98"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="A101:L101"/>
+    <mergeCell ref="A102:L102"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A93:L93"/>
+    <mergeCell ref="A94:L94"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A89:L89"/>
+    <mergeCell ref="A90:L90"/>
+    <mergeCell ref="A91:L91"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A83:L83"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A74:L74"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="A77:L77"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:L71"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L58"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A13:L15"/>
+    <mergeCell ref="A17:L19"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>